--- a/配置文件/2016昆山车模.xlsx
+++ b/配置文件/2016昆山车模.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 中小学生车辆模型比赛</t>
   </si>
   <si>
-    <t>成绩册</t>
+    <t>成绩公示</t>
   </si>
   <si>
     <t>2016.4 玉峰实验学校</t>
@@ -610,15 +610,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="179" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -632,6 +632,11 @@
     <font>
       <sz val="72"/>
       <name val="华文琥珀"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="华文行楷"/>
       <charset val="134"/>
     </font>
     <font>
@@ -673,13 +678,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -738,6 +736,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -865,12 +870,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,18 +888,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -908,12 +895,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,12 +924,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -967,12 +942,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -985,31 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,6 +1009,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,10 +1178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,138 +1190,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,84 +1329,87 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1422,13 +1430,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,7 +1831,7 @@
   </sheetPr>
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1835,13 +1843,13 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1900,243 +1908,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="10.6" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="20" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.6" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2172,249 +2180,249 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="20" customWidth="1"/>
+    <col min="6" max="6" width="29" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="6:6">
       <c r="F1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="29" t="str">
+      <c r="A3" s="30" t="str">
         <f>项目!A3</f>
         <v>1/10遥控电动越野竞速赛</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="30" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="30">
-        <v>6</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="31">
+        <v>6</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="29" t="str">
+      <c r="A4" s="30" t="str">
         <f>项目!A4</f>
         <v>1/10遥控电动房车竞速赛</v>
       </c>
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="30" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="30">
-        <v>6</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="31">
+        <v>6</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="29" t="str">
+      <c r="A5" s="30" t="str">
         <f>项目!A5</f>
         <v>1/16遥控电动越野、大脚车竞速赛</v>
       </c>
-      <c r="B5" s="29" t="str">
+      <c r="B5" s="30" t="str">
         <f>项目!B5</f>
         <v>A3</v>
       </c>
-      <c r="C5" s="30">
-        <v>6</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="31">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="29" t="str">
+      <c r="A6" s="30" t="str">
         <f>项目!A6</f>
         <v>1/16遥控电动房车竞速赛</v>
       </c>
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="30" t="str">
         <f>项目!B6</f>
         <v>A4</v>
       </c>
-      <c r="C6" s="30">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="31">
+        <v>6</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="29" t="str">
+      <c r="A7" s="30" t="str">
         <f>项目!A7</f>
         <v>1/18遥控电动车竞速赛</v>
       </c>
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="30" t="str">
         <f>项目!B7</f>
         <v>A5</v>
       </c>
-      <c r="C7" s="30">
-        <v>6</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="31">
+        <v>6</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:6">
-      <c r="A8" s="29" t="str">
+      <c r="A8" s="30" t="str">
         <f>项目!A8</f>
         <v>1/28遥控电动房车竞速赛</v>
       </c>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="30" t="str">
         <f>项目!B8</f>
         <v>A6</v>
       </c>
-      <c r="C8" s="30">
-        <v>6</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="31">
+        <v>6</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:6">
-      <c r="A9" s="29" t="str">
+      <c r="A9" s="30" t="str">
         <f>项目!A9</f>
         <v>“闪电冲线教育特供”竞速赛</v>
       </c>
-      <c r="B9" s="29" t="str">
+      <c r="B9" s="30" t="str">
         <f>项目!B9</f>
         <v>B1</v>
       </c>
-      <c r="C9" s="30">
-        <v>6</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="31">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:6">
-      <c r="A10" s="29" t="str">
+      <c r="A10" s="30" t="str">
         <f>项目!A10</f>
         <v>电动四驱车拼装赛</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="30" t="str">
         <f>项目!B10</f>
         <v>C1</v>
       </c>
-      <c r="C10" s="30">
-        <v>6</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="31">
+        <v>6</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:6">
-      <c r="A11" s="29" t="str">
+      <c r="A11" s="30" t="str">
         <f>项目!A11</f>
         <v>风动车直线竞速赛</v>
       </c>
-      <c r="B11" s="29" t="str">
+      <c r="B11" s="30" t="str">
         <f>项目!B11</f>
         <v>D1</v>
       </c>
-      <c r="C11" s="30">
-        <v>6</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="31">
+        <v>6</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:6">
-      <c r="A12" s="29" t="str">
+      <c r="A12" s="30" t="str">
         <f>项目!A12</f>
         <v>车辆模型电脑模拟赛</v>
       </c>
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="30" t="str">
         <f>项目!B12</f>
         <v>E1</v>
       </c>
-      <c r="C12" s="30">
-        <v>6</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="31">
+        <v>6</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2468,1030 +2476,1030 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
     <row r="2" ht="24" spans="1:30">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A3" s="4" t="str">
+    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A3" s="5" t="str">
         <f>项目!A3</f>
         <v>1/10遥控电动越野竞速赛</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>25</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="13">
         <v>20</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="13">
         <v>5</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="13">
         <v>5</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="13">
         <v>8</v>
       </c>
-      <c r="T3" s="12">
-        <v>6</v>
-      </c>
-      <c r="U3" s="12">
+      <c r="T3" s="13">
+        <v>6</v>
+      </c>
+      <c r="U3" s="13">
         <v>20</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="13">
         <v>20</v>
       </c>
-      <c r="W3" s="12">
-        <v>6</v>
-      </c>
-      <c r="X3" s="16" t="s">
+      <c r="W3" s="13">
+        <v>6</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A4" s="4" t="str">
+    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A4" s="5" t="str">
         <f>项目!A4</f>
         <v>1/10遥控电动房车竞速赛</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>25</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="13">
         <v>20</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="13">
         <v>5</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="13">
         <v>5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="13">
         <v>8</v>
       </c>
-      <c r="T4" s="12">
-        <v>6</v>
-      </c>
-      <c r="U4" s="12">
+      <c r="T4" s="13">
+        <v>6</v>
+      </c>
+      <c r="U4" s="13">
         <v>20</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="13">
         <v>20</v>
       </c>
-      <c r="W4" s="12">
-        <v>6</v>
-      </c>
-      <c r="X4" s="16" t="s">
+      <c r="W4" s="13">
+        <v>6</v>
+      </c>
+      <c r="X4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A5" s="4" t="str">
+    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A5" s="5" t="str">
         <f>项目!A5</f>
         <v>1/16遥控电动越野、大脚车竞速赛</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <f>项目!B5</f>
         <v>A3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="13">
         <v>20</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="13">
         <v>5</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="13">
         <v>5</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="13">
         <v>8</v>
       </c>
-      <c r="T5" s="12">
-        <v>6</v>
-      </c>
-      <c r="U5" s="12">
+      <c r="T5" s="13">
+        <v>6</v>
+      </c>
+      <c r="U5" s="13">
         <v>20</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="13">
         <v>20</v>
       </c>
-      <c r="W5" s="12">
-        <v>6</v>
-      </c>
-      <c r="X5" s="16" t="s">
+      <c r="W5" s="13">
+        <v>6</v>
+      </c>
+      <c r="X5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AC5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AD5" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A6" s="4" t="str">
+    <row r="6" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A6" s="5" t="str">
         <f>项目!A6</f>
         <v>1/16遥控电动房车竞速赛</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="5" t="str">
         <f>项目!B6</f>
         <v>A4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>25</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="13">
         <v>20</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="13">
         <v>5</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="13">
         <v>8</v>
       </c>
-      <c r="T6" s="12">
-        <v>6</v>
-      </c>
-      <c r="U6" s="12">
+      <c r="T6" s="13">
+        <v>6</v>
+      </c>
+      <c r="U6" s="13">
         <v>20</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="13">
         <v>20</v>
       </c>
-      <c r="W6" s="12">
-        <v>6</v>
-      </c>
-      <c r="X6" s="16" t="s">
+      <c r="W6" s="13">
+        <v>6</v>
+      </c>
+      <c r="X6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AB6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD6" s="18" t="s">
+      <c r="AD6" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A7" s="4" t="str">
+    <row r="7" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A7" s="5" t="str">
         <f>项目!A7</f>
         <v>1/18遥控电动车竞速赛</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <f>项目!B7</f>
         <v>A5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <v>20</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="13">
         <v>5</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="13">
         <v>5</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="13">
         <v>8</v>
       </c>
-      <c r="T7" s="12">
-        <v>6</v>
-      </c>
-      <c r="U7" s="12">
+      <c r="T7" s="13">
+        <v>6</v>
+      </c>
+      <c r="U7" s="13">
         <v>20</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="13">
         <v>20</v>
       </c>
-      <c r="W7" s="12">
-        <v>6</v>
-      </c>
-      <c r="X7" s="16" t="s">
+      <c r="W7" s="13">
+        <v>6</v>
+      </c>
+      <c r="X7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AA7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AB7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="18" t="s">
+      <c r="AC7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AD7" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A8" s="4" t="str">
+    <row r="8" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A8" s="5" t="str">
         <f>项目!A8</f>
         <v>1/28遥控电动房车竞速赛</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f>项目!B8</f>
         <v>A6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>25</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>2</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="13">
         <v>20</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="13">
         <v>5</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="13">
         <v>5</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="13">
         <v>8</v>
       </c>
-      <c r="T8" s="12">
-        <v>6</v>
-      </c>
-      <c r="U8" s="12">
+      <c r="T8" s="13">
+        <v>6</v>
+      </c>
+      <c r="U8" s="13">
         <v>20</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="13">
         <v>20</v>
       </c>
-      <c r="W8" s="12">
-        <v>6</v>
-      </c>
-      <c r="X8" s="16" t="s">
+      <c r="W8" s="13">
+        <v>6</v>
+      </c>
+      <c r="X8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC8" s="18" t="s">
+      <c r="AC8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:30">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="5" t="str">
         <f>项目!A9</f>
         <v>“闪电冲线教育特供”竞速赛</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <f>项目!B9</f>
         <v>B1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>25</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <v>20</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="13">
         <v>5</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="13">
         <v>5</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="13">
         <v>8</v>
       </c>
-      <c r="T9" s="12">
-        <v>6</v>
-      </c>
-      <c r="U9" s="12">
+      <c r="T9" s="13">
+        <v>6</v>
+      </c>
+      <c r="U9" s="13">
         <v>20</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="13">
         <v>20</v>
       </c>
-      <c r="W9" s="12">
-        <v>6</v>
-      </c>
-      <c r="X9" s="16" t="s">
+      <c r="W9" s="13">
+        <v>6</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Y9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AB9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD9" s="18" t="s">
+      <c r="AD9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:30">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="5" t="str">
         <f>项目!A10</f>
         <v>电动四驱车拼装赛</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <f>项目!B10</f>
         <v>C1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>25</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="26">
         <v>2</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="11" t="s">
+      <c r="N10" s="13"/>
+      <c r="O10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="13">
         <v>20</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="13">
         <v>5</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="13">
         <v>5</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="13">
         <v>8</v>
       </c>
-      <c r="T10" s="12">
-        <v>6</v>
-      </c>
-      <c r="U10" s="12">
+      <c r="T10" s="13">
+        <v>6</v>
+      </c>
+      <c r="U10" s="13">
         <v>20</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="13">
         <v>20</v>
       </c>
-      <c r="W10" s="12">
-        <v>6</v>
-      </c>
-      <c r="X10" s="16" t="s">
+      <c r="W10" s="13">
+        <v>6</v>
+      </c>
+      <c r="X10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Y10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AA10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AB10" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC10" s="18" t="s">
+      <c r="AC10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AD10" s="18"/>
+      <c r="AD10" s="19"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:30">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="5" t="str">
         <f>项目!A11</f>
         <v>风动车直线竞速赛</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <f>项目!B11</f>
         <v>D1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>25</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>2</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="13">
         <v>20</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="13">
         <v>5</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="13">
         <v>5</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="13">
         <v>8</v>
       </c>
-      <c r="T11" s="12">
-        <v>6</v>
-      </c>
-      <c r="U11" s="12">
+      <c r="T11" s="13">
+        <v>6</v>
+      </c>
+      <c r="U11" s="13">
         <v>20</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="13">
         <v>20</v>
       </c>
-      <c r="W11" s="12">
-        <v>6</v>
-      </c>
-      <c r="X11" s="16" t="s">
+      <c r="W11" s="13">
+        <v>6</v>
+      </c>
+      <c r="X11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AA11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AB11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="18" t="s">
+      <c r="AC11" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AD11" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:30">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="5" t="str">
         <f>项目!A12</f>
         <v>车辆模型电脑模拟赛</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <f>项目!B12</f>
         <v>E1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>30</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>25</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="13">
         <v>20</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="13">
         <v>5</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="13">
         <v>5</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="13">
         <v>8</v>
       </c>
-      <c r="T12" s="12">
-        <v>6</v>
-      </c>
-      <c r="U12" s="12">
+      <c r="T12" s="13">
+        <v>6</v>
+      </c>
+      <c r="U12" s="13">
         <v>20</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="13">
         <v>20</v>
       </c>
-      <c r="W12" s="12">
-        <v>6</v>
-      </c>
-      <c r="X12" s="16" t="s">
+      <c r="W12" s="13">
+        <v>6</v>
+      </c>
+      <c r="X12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AB12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AC12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" s="18" t="s">
+      <c r="AD12" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="28" customHeight="1"/>
     <row r="18" ht="28" customHeight="1"/>
@@ -3535,1074 +3543,1074 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
     <row r="2" ht="24" spans="1:32">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A3" s="4" t="str">
+    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A3" s="5" t="str">
         <f>项目!A3</f>
         <v>1/10遥控电动越野竞速赛</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="14">
         <v>25</v>
       </c>
-      <c r="O3" s="13">
-        <v>6</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="O3" s="14">
+        <v>6</v>
+      </c>
+      <c r="P3" s="14">
         <v>8</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="14">
         <v>15</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="14">
         <v>17</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14">
         <v>5</v>
       </c>
-      <c r="U3" s="13">
-        <v>6</v>
-      </c>
-      <c r="V3" s="13">
+      <c r="U3" s="14">
+        <v>6</v>
+      </c>
+      <c r="V3" s="14">
         <v>5</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="20"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A4" s="4" t="str">
+      <c r="AF3" s="21"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A4" s="5" t="str">
         <f>项目!A4</f>
         <v>1/10遥控电动房车竞速赛</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="14">
         <v>25</v>
       </c>
-      <c r="O4" s="13">
-        <v>6</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="O4" s="14">
+        <v>6</v>
+      </c>
+      <c r="P4" s="14">
         <v>8</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="14">
         <v>15</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="14">
         <v>17</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14">
         <v>5</v>
       </c>
-      <c r="U4" s="13">
-        <v>6</v>
-      </c>
-      <c r="V4" s="13">
+      <c r="U4" s="14">
+        <v>6</v>
+      </c>
+      <c r="V4" s="14">
         <v>5</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" s="20"/>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A5" s="4" t="str">
+      <c r="AF4" s="21"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A5" s="5" t="str">
         <f>项目!A5</f>
         <v>1/16遥控电动越野、大脚车竞速赛</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <f>项目!B5</f>
         <v>A3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="14">
         <v>25</v>
       </c>
-      <c r="O5" s="13">
-        <v>6</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="O5" s="14">
+        <v>6</v>
+      </c>
+      <c r="P5" s="14">
         <v>8</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="14">
         <v>15</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="14">
         <v>17</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14">
         <v>5</v>
       </c>
-      <c r="U5" s="13">
-        <v>6</v>
-      </c>
-      <c r="V5" s="13">
+      <c r="U5" s="14">
+        <v>6</v>
+      </c>
+      <c r="V5" s="14">
         <v>5</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AC5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AD5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AE5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF5" s="20"/>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A6" s="4" t="str">
+      <c r="AF5" s="21"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A6" s="5" t="str">
         <f>项目!A6</f>
         <v>1/16遥控电动房车竞速赛</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="5" t="str">
         <f>项目!B6</f>
         <v>A4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="14">
         <v>25</v>
       </c>
-      <c r="O6" s="13">
-        <v>6</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="O6" s="14">
+        <v>6</v>
+      </c>
+      <c r="P6" s="14">
         <v>8</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="14">
         <v>15</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="14">
         <v>17</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
         <v>5</v>
       </c>
-      <c r="U6" s="13">
-        <v>6</v>
-      </c>
-      <c r="V6" s="13">
+      <c r="U6" s="14">
+        <v>6</v>
+      </c>
+      <c r="V6" s="14">
         <v>5</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD6" s="18" t="s">
+      <c r="AD6" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF6" s="20"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A7" s="4" t="str">
+      <c r="AF6" s="21"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A7" s="5" t="str">
         <f>项目!A7</f>
         <v>1/18遥控电动车竞速赛</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="5" t="str">
         <f>项目!B7</f>
         <v>A5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="14">
         <v>25</v>
       </c>
-      <c r="O7" s="13">
-        <v>6</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="O7" s="14">
+        <v>6</v>
+      </c>
+      <c r="P7" s="14">
         <v>8</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="14">
         <v>15</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="14">
         <v>17</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14">
         <v>5</v>
       </c>
-      <c r="U7" s="13">
-        <v>6</v>
-      </c>
-      <c r="V7" s="13">
+      <c r="U7" s="14">
+        <v>6</v>
+      </c>
+      <c r="V7" s="14">
         <v>5</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC7" s="18" t="s">
+      <c r="AC7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AD7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AE7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF7" s="20"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A8" s="4" t="str">
+      <c r="AF7" s="21"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A8" s="5" t="str">
         <f>项目!A8</f>
         <v>1/28遥控电动房车竞速赛</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f>项目!B8</f>
         <v>A6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>20</v>
       </c>
-      <c r="O8" s="13">
-        <v>6</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="O8" s="14">
+        <v>6</v>
+      </c>
+      <c r="P8" s="14">
         <v>8</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="14">
         <v>10</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="14">
         <v>17</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="14">
         <v>17</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="14">
         <v>5</v>
       </c>
-      <c r="U8" s="13">
-        <v>6</v>
-      </c>
-      <c r="V8" s="13">
+      <c r="U8" s="14">
+        <v>6</v>
+      </c>
+      <c r="V8" s="14">
         <v>5</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AA8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB8" s="17" t="s">
+      <c r="AB8" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC8" s="18" t="s">
+      <c r="AC8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF8" s="20"/>
+      <c r="AF8" s="21"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:32">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="5" t="str">
         <f>项目!A9</f>
         <v>“闪电冲线教育特供”竞速赛</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <f>项目!B9</f>
         <v>B1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <v>20</v>
       </c>
-      <c r="O9" s="13">
-        <v>6</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="O9" s="14">
+        <v>6</v>
+      </c>
+      <c r="P9" s="14">
         <v>8</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="14">
         <v>10</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="14">
         <v>17</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="14">
         <v>17</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="14">
         <v>5</v>
       </c>
-      <c r="U9" s="13">
-        <v>6</v>
-      </c>
-      <c r="V9" s="13">
+      <c r="U9" s="14">
+        <v>6</v>
+      </c>
+      <c r="V9" s="14">
         <v>5</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AB9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD9" s="18" t="s">
+      <c r="AD9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AE9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF9" s="20"/>
+      <c r="AF9" s="21"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:32">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="5" t="str">
         <f>项目!A10</f>
         <v>电动四驱车拼装赛</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <f>项目!B10</f>
         <v>C1</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="14">
         <v>25</v>
       </c>
-      <c r="O10" s="13">
-        <v>6</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="O10" s="14">
+        <v>6</v>
+      </c>
+      <c r="P10" s="14">
         <v>8</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="14">
         <v>15</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="14">
         <v>17</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="14">
         <v>17</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="14">
         <v>5</v>
       </c>
-      <c r="U10" s="13">
-        <v>6</v>
-      </c>
-      <c r="V10" s="13">
+      <c r="U10" s="14">
+        <v>6</v>
+      </c>
+      <c r="V10" s="14">
         <v>5</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AA10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="18" t="s">
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AD10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AE10" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF10" s="20"/>
+      <c r="AF10" s="21"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:32">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="5" t="str">
         <f>项目!A11</f>
         <v>风动车直线竞速赛</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <f>项目!B11</f>
         <v>D1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>20</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="14">
         <v>20</v>
       </c>
-      <c r="O11" s="13">
-        <v>6</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="O11" s="14">
+        <v>6</v>
+      </c>
+      <c r="P11" s="14">
         <v>8</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="14">
         <v>10</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="14">
         <v>17</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="14">
         <v>17</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="14">
         <v>5</v>
       </c>
-      <c r="U11" s="13">
-        <v>6</v>
-      </c>
-      <c r="V11" s="13">
+      <c r="U11" s="14">
+        <v>6</v>
+      </c>
+      <c r="V11" s="14">
         <v>5</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA11" s="22" t="s">
+      <c r="AA11" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AB11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AC11" s="18" t="s">
+      <c r="AC11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AD11" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AE11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF11" s="20"/>
+      <c r="AF11" s="21"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:32">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="5" t="str">
         <f>项目!A12</f>
         <v>车辆模型电脑模拟赛</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <f>项目!B12</f>
         <v>E1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>30</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>20</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="14">
         <v>20</v>
       </c>
-      <c r="O12" s="13">
-        <v>6</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="O12" s="14">
+        <v>6</v>
+      </c>
+      <c r="P12" s="14">
         <v>8</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="14">
         <v>10</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="14">
         <v>17</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="14">
         <v>17</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="14">
         <v>5</v>
       </c>
-      <c r="U12" s="13">
-        <v>6</v>
-      </c>
-      <c r="V12" s="13">
+      <c r="U12" s="14">
+        <v>6</v>
+      </c>
+      <c r="V12" s="14">
         <v>5</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AB12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AC12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD12" s="18" t="s">
+      <c r="AD12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AE12" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF12" s="20"/>
+      <c r="AF12" s="21"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="28" customHeight="1"/>
     <row r="18" ht="28" customHeight="1"/>
@@ -4619,15 +4627,15 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="85.125" customWidth="1"/>
+    <col min="1" max="1" width="93.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="230" customHeight="1" spans="1:1">
@@ -4635,13 +4643,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" ht="293" customHeight="1" spans="1:1">
+    <row r="2" ht="407" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" ht="33" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="33" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
     </row>

--- a/配置文件/2016昆山车模.xlsx
+++ b/配置文件/2016昆山车模.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="5"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -609,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -681,38 +681,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -721,59 +690,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -796,6 +712,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -811,12 +788,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -826,6 +819,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,25 +870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +924,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +972,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,13 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,49 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,6 +1070,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1098,21 +1122,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1123,26 +1132,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1153,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1178,10 +1178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,133 +1190,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
@@ -2170,7 +2170,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3518,12 +3518,12 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4629,7 +4629,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
